--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\13march\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve"> **Test Title**                                       </t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,6 +614,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t xml:space="preserve"> **Test Title**                                       </t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +619,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t xml:space="preserve"> **Test Title**                                       </t>
   </si>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +624,16 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
